--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,38 @@
   </si>
   <si>
     <t>请输入支付密码！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额非法-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小于下限-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码为空-提现成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,156 +516,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -10,7 +10,7 @@
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="66">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,30 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验金额下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验支付密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expectResult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,19 +127,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额非法-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小于下限-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码为空-提现成功</t>
+    <t>金额非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工商银行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次最多可提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,26 +636,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -547,156 +678,1219 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J34" t="s">
         <v>22</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="83">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,74 @@
   </si>
   <si>
     <t>999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +707,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A33"/>
+      <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -697,7 +765,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -707,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -735,8 +803,8 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -745,7 +813,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -773,8 +841,8 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -783,7 +851,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -811,7 +879,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -821,7 +889,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -849,8 +917,8 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -859,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -887,7 +955,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -897,7 +965,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -925,8 +993,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -935,7 +1003,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -963,8 +1031,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -973,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1001,7 +1069,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
@@ -1011,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1039,7 +1107,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
@@ -1049,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -1077,7 +1145,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1087,7 +1155,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1115,7 +1183,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
@@ -1125,7 +1193,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -1153,8 +1221,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>30</v>
+      <c r="A14" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1163,7 +1231,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -1191,8 +1259,8 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>30</v>
+      <c r="A15" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1201,7 +1269,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -1229,7 +1297,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -1239,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1267,8 +1335,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -1277,7 +1345,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -1302,8 +1370,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>30</v>
+      <c r="A18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -1312,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -1337,8 +1405,8 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>30</v>
+      <c r="A19" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -1347,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1372,8 +1440,8 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>30</v>
+      <c r="A20" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -1382,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
@@ -1407,8 +1475,8 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>30</v>
+      <c r="A21" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -1417,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
@@ -1442,8 +1510,8 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>30</v>
+      <c r="A22" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -1452,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
@@ -1477,8 +1545,8 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>30</v>
+      <c r="A23" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -1487,7 +1555,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
@@ -1512,8 +1580,8 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>30</v>
+      <c r="A24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -1522,7 +1590,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
@@ -1547,8 +1615,8 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>30</v>
+      <c r="A25" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1557,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
@@ -1582,8 +1650,8 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>30</v>
+      <c r="A26" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1592,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
@@ -1617,8 +1685,8 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>30</v>
+      <c r="A27" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -1627,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -1652,8 +1720,8 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>30</v>
+      <c r="A28" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1662,7 +1730,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
@@ -1687,8 +1755,8 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>30</v>
+      <c r="A29" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
@@ -1697,7 +1765,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
@@ -1722,8 +1790,8 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>30</v>
+      <c r="A30" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -1732,7 +1800,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
@@ -1757,8 +1825,8 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -1767,7 +1835,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -766,7 +766,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
@@ -1970,13 +1970,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1987,11 +1990,171 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="3225"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,320 +35,317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_passwrod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现金额必须为数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现金额不能小于1元！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入支付密码！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工商银行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次最多可提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mobile</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_passwrod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现金额必须为数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现金额不能小于1元！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入支付密码！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小于下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">工商银行 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-余额不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次最多可提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>999999999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBankUser(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -731,1234 +729,1234 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>63</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>63</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
       <c r="K27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>63</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>63</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
-        <v>63</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0.1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1972,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1986,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1994,17 +1992,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2014,7 +2012,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2024,32 +2022,32 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2064,97 +2062,97 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -11,7 +11,6 @@
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="81">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +61,6 @@
   </si>
   <si>
     <t>提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -704,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -729,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -753,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -767,31 +762,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -802,34 +797,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>8</v>
@@ -840,34 +835,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>8</v>
@@ -881,31 +876,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>8</v>
@@ -916,34 +911,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
@@ -957,31 +952,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
@@ -992,34 +987,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>8</v>
@@ -1030,34 +1025,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>8</v>
@@ -1068,34 +1063,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>8</v>
@@ -1106,34 +1101,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>8</v>
@@ -1144,34 +1139,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>8</v>
@@ -1182,34 +1177,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>8</v>
@@ -1223,31 +1218,31 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>8</v>
@@ -1261,31 +1256,31 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>8</v>
@@ -1296,34 +1291,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>8</v>
@@ -1334,34 +1329,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>62</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>8</v>
@@ -1369,34 +1364,34 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>62</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>8</v>
@@ -1404,34 +1399,34 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>62</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>8</v>
@@ -1439,34 +1434,34 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>62</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>8</v>
@@ -1474,34 +1469,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>62</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>8</v>
@@ -1509,34 +1504,34 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>62</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>8</v>
@@ -1544,34 +1539,34 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>8</v>
@@ -1579,34 +1574,34 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>8</v>
@@ -1614,34 +1609,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>62</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>8</v>
@@ -1649,34 +1644,34 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>62</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>8</v>
@@ -1684,34 +1679,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>62</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>8</v>
@@ -1719,34 +1714,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>62</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
@@ -1754,34 +1749,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>62</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>8</v>
@@ -1789,34 +1784,34 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>62</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>8</v>
@@ -1824,34 +1819,34 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>62</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>8</v>
@@ -1859,34 +1854,34 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>8</v>
@@ -1894,34 +1889,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>0.1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>8</v>
@@ -1929,31 +1924,31 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>8</v>
@@ -1997,12 +1992,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2012,7 +2007,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2022,32 +2017,32 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2062,97 +2057,97 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="96">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正例-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额非法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,66 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄-提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反例-余额不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本次最多可提现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +269,138 @@
   </si>
   <si>
     <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡余额不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -730,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -739,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -762,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -777,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -797,16 +857,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -815,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -835,16 +895,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -853,10 +913,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -876,13 +936,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -891,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
@@ -911,16 +971,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -929,10 +989,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -952,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -967,10 +1027,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
@@ -987,16 +1047,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1005,10 +1065,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -1025,16 +1085,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1043,10 +1103,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
@@ -1063,16 +1123,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1081,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
@@ -1101,16 +1161,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1119,10 +1179,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -1139,16 +1199,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1157,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>14</v>
@@ -1177,16 +1237,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1195,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>14</v>
@@ -1218,25 +1278,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
@@ -1256,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1271,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>14</v>
@@ -1291,16 +1351,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1309,10 +1369,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -1329,16 +1389,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1347,16 +1407,16 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>8</v>
@@ -1364,16 +1424,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1382,16 +1442,16 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>8</v>
@@ -1399,16 +1459,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1417,16 +1477,16 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>8</v>
@@ -1434,16 +1494,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1452,16 +1512,16 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>8</v>
@@ -1469,16 +1529,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1487,16 +1547,16 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>8</v>
@@ -1504,16 +1564,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1522,16 +1582,16 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>8</v>
@@ -1539,16 +1599,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1557,16 +1617,16 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>8</v>
@@ -1574,16 +1634,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1592,16 +1652,16 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>8</v>
@@ -1609,16 +1669,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1627,16 +1687,16 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>8</v>
@@ -1644,16 +1704,16 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1662,16 +1722,16 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>8</v>
@@ -1679,16 +1739,16 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1697,16 +1757,16 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>8</v>
@@ -1714,34 +1774,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
         <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>61</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>8</v>
@@ -1749,16 +1809,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -1767,16 +1827,16 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>8</v>
@@ -1784,34 +1844,34 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>8</v>
@@ -1819,17 +1879,17 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1837,16 +1897,16 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>8</v>
@@ -1854,16 +1914,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -1872,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -1889,16 +1949,16 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -1907,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <v>0.1</v>
@@ -1924,16 +1984,16 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -1942,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>11</v>
@@ -1992,12 +2052,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2007,7 +2067,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2017,32 +2077,32 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2057,97 +2117,97 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="167">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,258 @@
   </si>
   <si>
     <t>平安银行卡余额不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rechargeMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rechargePay_passwrod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getErrorPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的账户无法进行本操作！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getIsDunningBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期账户提现到邮政银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -774,12 +1026,14 @@
     <col min="7" max="7" width="36.125" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,22 +1056,28 @@
         <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,22 +1100,28 @@
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -878,22 +1144,28 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -916,22 +1188,28 @@
         <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,22 +1232,28 @@
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -992,22 +1276,28 @@
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,22 +1320,28 @@
         <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1068,22 +1364,28 @@
         <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1106,22 +1408,28 @@
         <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1144,22 +1452,28 @@
         <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1182,22 +1496,28 @@
         <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1220,22 +1540,28 @@
         <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1258,22 +1584,28 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1296,22 +1628,28 @@
         <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,22 +1672,28 @@
         <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1372,22 +1716,28 @@
         <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1410,19 +1760,25 @@
         <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,19 +1801,25 @@
         <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1480,19 +1842,25 @@
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1515,19 +1883,25 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1550,19 +1924,25 @@
         <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1585,19 +1965,25 @@
         <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1620,19 +2006,25 @@
         <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1655,19 +2047,25 @@
         <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1690,19 +2088,25 @@
         <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1725,19 +2129,25 @@
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1760,19 +2170,25 @@
         <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1795,19 +2211,25 @@
         <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1830,19 +2252,25 @@
         <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1865,19 +2293,25 @@
         <v>41</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1900,19 +2334,25 @@
         <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1934,20 +2374,26 @@
       <c r="G32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1969,20 +2415,26 @@
       <c r="G33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H33">
-        <v>0.1</v>
+      <c r="H33" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1990,7 +2442,7 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>46</v>
@@ -2004,14 +2456,721 @@
       <c r="G34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H34">
-        <v>11</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="H34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>8</v>
+      <c r="M34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -1018,19 +1018,19 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
         <v>80</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="183">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逾期账户提现到建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getIsDunningBankUser(10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,59 +596,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逾期账户提现到中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期账户提现到邮政银行</t>
+    <t>逾期已还清用户提现到建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期已还清用户提现到邮政银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期未还清用户提现到邮政银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1123,7 +1187,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -1167,7 +1231,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -1255,7 +1319,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -1343,7 +1407,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -1387,7 +1451,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1431,7 +1495,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -1475,7 +1539,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -1519,7 +1583,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -1563,7 +1627,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -1695,7 +1759,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>79</v>
@@ -1737,18 +1801,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1760,36 +1824,39 @@
         <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L17" t="s">
-        <v>43</v>
+      <c r="L17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1801,36 +1868,39 @@
         <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L18" t="s">
-        <v>43</v>
+      <c r="L18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1842,36 +1912,39 @@
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
-        <v>43</v>
+      <c r="L19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1883,36 +1956,39 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" t="s">
-        <v>43</v>
+      <c r="L20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1924,36 +2000,39 @@
         <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L21" t="s">
-        <v>43</v>
+      <c r="L21" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1965,36 +2044,39 @@
         <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L22" t="s">
-        <v>43</v>
+      <c r="L22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -2006,36 +2088,39 @@
         <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L23" t="s">
-        <v>43</v>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -2047,36 +2132,39 @@
         <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" t="s">
-        <v>43</v>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -2088,36 +2176,39 @@
         <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -2129,36 +2220,39 @@
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L26" t="s">
-        <v>43</v>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -2170,36 +2264,39 @@
         <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L27" t="s">
-        <v>43</v>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -2211,36 +2308,39 @@
         <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -2252,36 +2352,39 @@
         <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L29" t="s">
-        <v>43</v>
+      <c r="L29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -2293,36 +2396,39 @@
         <v>41</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L30" t="s">
-        <v>43</v>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -2334,33 +2440,36 @@
         <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L31" t="s">
-        <v>43</v>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>46</v>
@@ -2375,36 +2484,36 @@
         <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>18</v>
+      <c r="L32" t="s">
+        <v>43</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -2413,39 +2522,39 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>19</v>
+      <c r="L33" t="s">
+        <v>43</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -2454,25 +2563,28 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>132</v>
+        <v>45</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2480,10 +2592,10 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -2492,39 +2604,39 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -2533,42 +2645,39 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>136</v>
+      <c r="L36" t="s">
+        <v>43</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -2577,42 +2686,39 @@
         <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>136</v>
+      <c r="L37" t="s">
+        <v>43</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -2621,42 +2727,39 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>136</v>
+      <c r="L38" t="s">
+        <v>43</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2665,42 +2768,39 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>136</v>
+      <c r="L39" t="s">
+        <v>43</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
@@ -2709,42 +2809,39 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>136</v>
+      <c r="L40" t="s">
+        <v>43</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -2753,42 +2850,39 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>136</v>
+      <c r="L41" t="s">
+        <v>43</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
@@ -2797,42 +2891,39 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>136</v>
+      <c r="L42" t="s">
+        <v>43</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -2841,42 +2932,39 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>136</v>
+      <c r="L43" t="s">
+        <v>43</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -2885,42 +2973,39 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>136</v>
+      <c r="L44" t="s">
+        <v>43</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -2929,42 +3014,39 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>136</v>
+      <c r="L45" t="s">
+        <v>43</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -2973,42 +3055,39 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>136</v>
+      <c r="L46" t="s">
+        <v>43</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -3020,39 +3099,36 @@
         <v>28</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -3064,39 +3140,36 @@
         <v>28</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="N48" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -3108,39 +3181,33 @@
         <v>28</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="N49" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -3152,24 +3219,681 @@
         <v>28</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="I51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N65" t="s">
         <v>7</v>
       </c>
     </row>
